--- a/design exel sheet/hinged base connection.xlsx
+++ b/design exel sheet/hinged base connection.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\Graduation-project\design exel sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="100">
   <si>
     <t>web length</t>
   </si>
@@ -554,44 +554,26 @@
     <t>total inertia , Ix , n direction</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">min stifferer plan length , </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>st,min</t>
-    </r>
-  </si>
-  <si>
     <t>m direction stiffneres , flanges plan perpendicular stiffeners</t>
   </si>
   <si>
     <t>web plan perpendicular stiffeners , welded on flages</t>
+  </si>
+  <si>
+    <t>stiffeners weld area</t>
+  </si>
+  <si>
+    <t>stiffeners to plate weld thickness</t>
+  </si>
+  <si>
+    <t>min stifferer plan length ,bst,min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,14 +639,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -887,11 +861,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -903,13 +883,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -921,11 +895,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -939,6 +910,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -948,7 +922,415 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1257,7 +1639,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>492488</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>162221</xdr:rowOff>
+      <xdr:rowOff>117397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1550,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,50 +1955,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="Q1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="Q1" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="6"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+    </row>
+    <row r="3" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1637,16 +2019,16 @@
         <v>15</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R3" s="13">
+        <v>99</v>
+      </c>
+      <c r="R3" s="9">
         <f>IF((B7-L3)/2-L12&gt;0,(B7-L3)/2-L12,"no stiffeners required ")</f>
         <v>11.443809065191434</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="7" t="s">
         <v>45</v>
       </c>
       <c r="V3" s="2">
@@ -1680,7 +2062,7 @@
       <c r="Q4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="9">
         <f>IF(B19&gt;0, IF(B21, B21, _xlfn.CEILING.MATH(L3/3)), 0)</f>
         <v>20</v>
       </c>
@@ -1762,7 +2144,7 @@
       <c r="Q6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="9">
         <f>MAX(B20,R5)</f>
         <v>1.5</v>
       </c>
@@ -1803,7 +2185,7 @@
       <c r="Q7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="10">
         <f>MIN(R6,B6)</f>
         <v>1.5</v>
       </c>
@@ -1973,7 +2355,7 @@
       <c r="K12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="9">
         <f>POWER(L21*POWER(B12,3)/(6*L19),0.5)</f>
         <v>7.0561909348085647</v>
       </c>
@@ -1990,11 +2372,11 @@
       <c r="S12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="U12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
     </row>
     <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -2006,11 +2388,11 @@
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
       <c r="Q13" s="4" t="s">
         <v>78</v>
       </c>
@@ -2021,9 +2403,9 @@
       <c r="S13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
     </row>
     <row r="14" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -2053,7 +2435,7 @@
         <v>safe</v>
       </c>
       <c r="S14" s="3"/>
-      <c r="U14" s="8" t="s">
+      <c r="U14" s="7" t="s">
         <v>56</v>
       </c>
       <c r="V14" s="2">
@@ -2136,14 +2518,14 @@
         <v>29</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="V16" s="2">
-        <f>(B3-2)*2</f>
-        <v>84</v>
+        <f>(MAX(R3,R17)-R17)*2*R17*B19*2+B22*2*(MAX(R21,R35)-R35)*R35</f>
+        <v>35.34018900861259</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -2166,15 +2548,24 @@
       <c r="M17" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="Q17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="U17" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V17" s="2">
-        <f>B9/(V15*B17 + V16*B18)</f>
-        <v>1.0056818181818181</v>
+        <f>(B3-2)*2</f>
+        <v>84</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -2187,20 +2578,20 @@
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12"/>
-      <c r="U18" s="4" t="s">
-        <v>64</v>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="U18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="V18" s="2">
-        <f>B10/(V15*B17 + V16*B18)</f>
-        <v>2.2727272727272728E-2</v>
+        <f>B9/(V15*B17 + V17*B18 + V16)</f>
+        <v>0.83751226319186667</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -2223,20 +2614,20 @@
       <c r="M19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="R19" s="22"/>
-      <c r="S19" s="23"/>
+      <c r="Q19" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" s="21"/>
+      <c r="S19" s="22"/>
       <c r="U19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V19" s="2">
-        <f>POWER(POWER(V17,2) +3*POWER(V18,2),0.5)</f>
-        <v>1.0064519393385594</v>
+        <f>B10/(V15*B17 + V17*B18 + V16)</f>
+        <v>1.8926830806595858E-2</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -2246,37 +2637,39 @@
       <c r="B20" s="5">
         <v>1.5</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="9" t="str">
+      <c r="L20" s="8" t="str">
         <f>IF(L19*1000 &lt; B11, "safe", "unsafe")</f>
         <v>safe</v>
       </c>
       <c r="M20" s="3"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="19"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="24"/>
       <c r="S20" s="25"/>
-      <c r="U20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V20" s="2" t="str">
-        <f>IF(AND(MAX(V17:V18) &lt; V14, V19 &lt; V14*1.1), "safe", "unsafe")</f>
-        <v>safe</v>
-      </c>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V20" s="2">
+        <f>POWER(POWER(V18,2) +3*POWER(V19,2),0.5)</f>
+        <v>0.83815360511657233</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B21" s="5">
         <v>20</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K21" s="4" t="s">
@@ -2290,15 +2683,23 @@
         <v>18</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R21" s="13" t="str">
+        <v>99</v>
+      </c>
+      <c r="R21" s="9" t="str">
         <f>IF((B8-B5)/2 - L12 &gt; 0, (B8-B5)/2 - L12, "no stiffeners required")</f>
         <v>no stiffeners required</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="U21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V21" s="2" t="str">
+        <f>IF(AND(MAX(V18:V19) &lt; V14, V20 &lt; V14*1.1), "safe", "unsafe")</f>
+        <v>safe</v>
+      </c>
+      <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -2323,7 +2724,7 @@
       <c r="Q22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="9">
         <f>IF(B22&gt;0, IF(B24, B24, _xlfn.CEILING.MATH(L3/3)), 0)</f>
         <v>0</v>
       </c>
@@ -2338,7 +2739,7 @@
       <c r="B23" s="5">
         <v>2</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K23" s="4" t="s">
@@ -2369,7 +2770,7 @@
       <c r="B24" s="5">
         <v>16</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K24" s="4" t="s">
@@ -2385,7 +2786,7 @@
       <c r="Q24" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="R24" s="13">
+      <c r="R24" s="9">
         <f>MAX(B23,R23)</f>
         <v>2</v>
       </c>
@@ -2407,7 +2808,7 @@
       <c r="Q25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="10">
         <f>MIN(R24,B6)</f>
         <v>2</v>
       </c>
@@ -2549,107 +2950,118 @@
         <v>29</v>
       </c>
     </row>
+    <row r="35" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Q19:S20"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="U1:W2"/>
+    <mergeCell ref="U12:W13"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="F1:H2"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="Q1:S2"/>
-    <mergeCell ref="Q19:S20"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="K1:M2"/>
-    <mergeCell ref="U1:W2"/>
-    <mergeCell ref="U12:W13"/>
   </mergeCells>
   <conditionalFormatting sqref="V7:V9">
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="19" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="36" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="36" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="28" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
-      <formula>"safe"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V18:V19">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V19">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"unsafe"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>"safe"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V20">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>"unsafe"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="29" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="16" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="17" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="12" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="3" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="lessThan">
       <formula>$R$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="lessThan">
       <formula>$R$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V19:V20">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V20">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"unsafe"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"safe"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V21">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"unsafe"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design exel sheet/hinged base connection.xlsx
+++ b/design exel sheet/hinged base connection.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\Graduation-project\design exel sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\Graduation-project\development\07-connections\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="n direction stiffiners count" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
   <si>
     <t>web length</t>
   </si>
@@ -108,9 +109,6 @@
   </si>
   <si>
     <t>stiffenere</t>
-  </si>
-  <si>
-    <t>stiffeners length , bst</t>
   </si>
   <si>
     <t>cm4</t>
@@ -554,26 +552,59 @@
     <t>total inertia , Ix , n direction</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">min stifferer plan length , </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st,min</t>
+    </r>
+  </si>
+  <si>
     <t>m direction stiffneres , flanges plan perpendicular stiffeners</t>
   </si>
   <si>
-    <t>web plan perpendicular stiffeners , welded on flages</t>
-  </si>
-  <si>
-    <t>stiffeners weld area</t>
-  </si>
-  <si>
-    <t>stiffeners to plate weld thickness</t>
-  </si>
-  <si>
-    <t>min stifferer plan length ,bst,min</t>
+    <t>stiffeners height , bst</t>
+  </si>
+  <si>
+    <t>n direction stiffners , web plan perpendicular stiffeners , welded on flages</t>
+  </si>
+  <si>
+    <t>Qx</t>
+  </si>
+  <si>
+    <t>Qy</t>
+  </si>
+  <si>
+    <t>stiffeners to plate weld is fixed to minimum weld thickness = 4 mm</t>
+  </si>
+  <si>
+    <t>stiffeners to plate weld area</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,6 +677,14 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -673,8 +712,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -690,6 +743,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -840,12 +898,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -862,41 +921,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -916,93 +951,44 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <border>
         <left style="thin">
@@ -1020,278 +1006,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1630,20 +1344,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2590800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>492488</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>117397</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>258778</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>91065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1656,8 +1370,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4191000" y="4078941"/>
-          <a:ext cx="3943900" cy="6134956"/>
+          <a:off x="18592800" y="10363200"/>
+          <a:ext cx="7961905" cy="5771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13854</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1051092</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>169842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9157854" y="10640291"/>
+          <a:ext cx="7895238" cy="5933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2660072</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>193963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>313543</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>102398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2660072" y="8201890"/>
+          <a:ext cx="4968671" cy="4206605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1932,15 +1722,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="46.5703125" bestFit="1" customWidth="1"/>
@@ -1955,55 +1745,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="K1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="K1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="Q1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
+      <c r="U1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
       <c r="T2" s="6"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+    </row>
+    <row r="3" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -2013,27 +1803,27 @@
       </c>
       <c r="L3" s="2">
         <f>B3+2*B6</f>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R3" s="9">
         <f>IF((B7-L3)/2-L12&gt;0,(B7-L3)/2-L12,"no stiffeners required ")</f>
-        <v>11.443809065191434</v>
+        <v>6.0717967697244903</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V3" s="2">
-        <f>(PI()*B15*B15/4)/100</f>
-        <v>0.78539816339744828</v>
+        <f>(PI()*B17*B17/4)/100</f>
+        <v>2.0106192982974678</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>16</v>
@@ -2041,10 +1831,10 @@
     </row>
     <row r="4" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -2054,30 +1844,30 @@
       </c>
       <c r="L4" s="2">
         <f>0.95*L3</f>
-        <v>45.599999999999994</v>
+        <v>22.799999999999997</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="R4" s="9">
-        <f>IF(B19&gt;0, IF(B21, B21, _xlfn.CEILING.MATH(L3/3)), 0)</f>
-        <v>20</v>
+        <f>IF(B21&gt;0, IF(B23, B23, _xlfn.CEILING.MATH(L3/3)), 0)</f>
+        <v>18</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V4" s="2">
-        <f>0.35 * B15 * 0.85 *V3</f>
-        <v>2.3365595361074085</v>
+        <f>0.35 * B17 * 0.85 *V3</f>
+        <v>9.5705478598959459</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -2085,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
@@ -2095,30 +1885,30 @@
       </c>
       <c r="L5" s="2">
         <f>0.8*B5</f>
-        <v>16</v>
+        <v>20.8</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R5" s="2">
-        <f>IF(B19 &gt;0, R4/16, 0)</f>
-        <v>1.25</v>
+        <f>IF(B21 &gt;0, R4/16, 0)</f>
+        <v>1.125</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V5" s="2">
-        <f>B15*B12*0.1*0.85*1.2*B14</f>
-        <v>10.608000000000001</v>
+        <f>B17*B14*0.1*0.85*1.2*B16</f>
+        <v>16.972800000000003</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -2136,30 +1926,30 @@
       </c>
       <c r="L6" s="2">
         <f>(B7-L4)/2</f>
-        <v>19.700000000000003</v>
+        <v>13.600000000000001</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R6" s="9">
-        <f>MAX(B20,R5)</f>
-        <v>1.5</v>
+        <f>MAX(B22,R5)</f>
+        <v>2</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V6" s="2">
         <f>MIN(V4:V5)</f>
-        <v>2.3365595361074085</v>
+        <v>9.5705478598959459</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -2167,7 +1957,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="5">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -2177,30 +1967,30 @@
       </c>
       <c r="L7" s="2">
         <f>(B8-L5)/2</f>
-        <v>7</v>
+        <v>14.6</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R7" s="10">
         <f>MIN(R6,B6)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V7" s="2">
-        <f>V6*B16</f>
-        <v>4.673119072214817</v>
+        <f>V6*B18</f>
+        <v>19.141095719791892</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -2208,32 +1998,32 @@
         <v>9</v>
       </c>
       <c r="B8" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
+      <c r="K8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
       <c r="Q8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R8" s="2">
         <f>2*R4</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V8" s="2">
-        <f>MIN(300, 20*B15) / 10</f>
-        <v>20</v>
+        <f>MIN(300, 20*B17) / 10</f>
+        <v>30</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>15</v>
@@ -2244,7 +2034,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="5">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
@@ -2254,26 +2044,26 @@
       </c>
       <c r="L9" s="2">
         <f>B7*B8</f>
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R9" s="2">
         <f>L19*B8*L6</f>
-        <v>41.022352941176479</v>
+        <v>48.96</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V9" s="2" t="str">
-        <f>IF(V7&gt;B10, "safe", "unsafe")</f>
+        <f>IF(V7&gt;B12, "safe", "unsafe")</f>
         <v>safe</v>
       </c>
       <c r="W9" s="3" t="s">
@@ -2282,30 +2072,30 @@
     </row>
     <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="B10" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" s="2">
-        <f>B12*B8</f>
-        <v>60</v>
+        <f>B14*B8</f>
+        <v>100</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R10" s="2">
-        <f>R9/B19</f>
-        <v>20.511176470588239</v>
+        <f>R9/B21</f>
+        <v>24.48</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>17</v>
@@ -2313,122 +2103,123 @@
     </row>
     <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="B11" s="5">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="2">
-        <f>B8*POWER(B12,3)/12</f>
-        <v>20</v>
+        <f>B8*POWER(B14,3)/12</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R11" s="2">
         <f>R10/(R8*R7)</f>
-        <v>0.34185294117647064</v>
+        <v>0.34</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5">
-        <v>2</v>
+        <f>POWER(POWER(B10,2)+POWER(B11,2),0.5)</f>
+        <v>12.041594578792296</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L12" s="9">
-        <f>POWER(L21*POWER(B12,3)/(6*L19),0.5)</f>
-        <v>7.0561909348085647</v>
+        <f>POWER(L21*POWER(B14,3)/(6*L19),0.5)</f>
+        <v>6.9282032302755097</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R12" s="2">
         <f>L17 * (R4-L22) / L23</f>
-        <v>0.78714969442322402</v>
+        <v>0.74435888312799625</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
     </row>
     <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3.6</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="5">
+        <v>77</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
       <c r="Q13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R13" s="2">
         <f>POWER(POWER(R12,2)+3*POWER(R11,2),0.5)</f>
-        <v>0.98498474181257523</v>
+        <v>0.94914179493453876</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
     </row>
     <row r="14" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="2">
-        <v>5.2</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="1">
         <f>L19*POWER(L7,2)/2</f>
-        <v>1.7005882352941177</v>
+        <v>7.6737599999999997</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R14" s="2" t="str">
         <f>IF(AND(R13 &lt; V14*1.1, R12&lt;V14,R11&lt;V14), "safe", "unsafe")</f>
@@ -2436,52 +2227,52 @@
       </c>
       <c r="S14" s="3"/>
       <c r="U14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V14" s="2">
-        <f>0.2 * B14</f>
+        <f>0.2 * B16</f>
         <v>1.04</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="5">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3.6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="4">
         <f>L19*POWER(L6,2)/2</f>
-        <v>13.469005882352944</v>
+        <v>6.6585600000000005</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R15" s="2">
-        <f>R5*R4*B19</f>
-        <v>50</v>
+        <f>R5*R4*B21</f>
+        <v>40.5</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V15" s="2">
-        <f>2*B5+2*(B5-B4-2)-B19*2*R6</f>
-        <v>67</v>
+        <f>2*B5+2*(B5-B4-2*B20)-B21*2*R6</f>
+        <v>92.4</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>15</v>
@@ -2489,211 +2280,224 @@
     </row>
     <row r="16" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5.2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L16" s="4">
         <f>L14*B7</f>
-        <v>144.55000000000001</v>
+        <v>383.68799999999999</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R16" s="2">
         <f>POWER(R4,3)*R5/12</f>
-        <v>833.33333333333337</v>
+        <v>546.75</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="V16" s="2">
-        <f>(MAX(R3,R17)-R17)*2*R17*B19*2+B22*2*(MAX(R21,R35)-R35)*R35</f>
-        <v>35.34018900861259</v>
+        <f>(B3-2*B19)*2</f>
+        <v>32</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B17" s="5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L17" s="2">
         <f>L15*B8</f>
-        <v>404.07017647058831</v>
+        <v>332.928</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="U17" s="1" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="V17" s="2">
-        <f>(B3-2)*2</f>
-        <v>84</v>
+        <f>(B24*R21*0.4*2+B21*(R3-B19)*0.4*2)*2</f>
+        <v>29.259499326236739</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B18" s="5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="K18" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
       <c r="U18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V18" s="2">
-        <f>B9/(V15*B17 + V17*B18 + V16)</f>
-        <v>0.83751226319186667</v>
+        <f>B9/(V15*B19 + V16*B20+V17)</f>
+        <v>0.79344263975981821</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B19" s="5">
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
       <c r="K19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="2">
         <f>B9/L9</f>
-        <v>6.9411764705882353E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="R19" s="21"/>
-      <c r="S19" s="22"/>
+      <c r="Q19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14"/>
       <c r="U19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V19" s="2">
-        <f>B10/(V15*B17 + V17*B18 + V16)</f>
-        <v>1.8926830806595858E-2</v>
+        <f>B12/(V15*B19 + V16*B20+V17)</f>
+        <v>5.3079525497302639E-2</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B20" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>15</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
       <c r="K20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="8" t="str">
-        <f>IF(L19*1000 &lt; B11, "safe", "unsafe")</f>
+        <f>IF(L19*1000 &lt; B13, "safe", "unsafe")</f>
         <v>safe</v>
       </c>
       <c r="M20" s="3"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="25"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="17"/>
       <c r="U20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V20" s="2">
         <f>POWER(POWER(V18,2) +3*POWER(V19,2),0.5)</f>
-        <v>0.83815360511657233</v>
+        <v>0.79875123203040199</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B21" s="5">
-        <v>20</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
       <c r="K21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L21" s="2">
-        <f>B13*0.72</f>
+        <f>B15*0.72</f>
         <v>2.5920000000000001</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="R21" s="9" t="str">
+        <v>94</v>
+      </c>
+      <c r="R21" s="9">
         <f>IF((B8-B5)/2 - L12 &gt; 0, (B8-B5)/2 - L12, "no stiffeners required")</f>
-        <v>no stiffeners required</v>
+        <v>5.0717967697244903</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V21" s="2" t="str">
         <f>IF(AND(MAX(V18:V19) &lt; V14, V20 &lt; V14*1.1), "safe", "unsafe")</f>
@@ -2703,30 +2507,35 @@
     </row>
     <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="K22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="L22" s="2">
-        <f>(L10*B12/2 + B19 * R15 * (R4/2 +B12)) / ( L10 +B19*R15)</f>
-        <v>7.875</v>
+        <f>(L10*B14/2 + B21 * R15 * (R4/2 +B14)) / ( L10 +B21*R15)</f>
+        <v>5.4751381215469612</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="R22" s="9">
-        <f>IF(B22&gt;0, IF(B24, B24, _xlfn.CEILING.MATH(L3/3)), 0)</f>
-        <v>0</v>
+        <f>IF(B24&gt;0, IF(B26, B26, _xlfn.CEILING.MATH(L3/3)), 0)</f>
+        <v>6</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>15</v>
@@ -2734,30 +2543,35 @@
     </row>
     <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" s="5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
       <c r="K23" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L23" s="2">
-        <f>L11+B19*R16+L10*POWER(B12/2-L22,2)+B19*R15*POWER(B12+R4/2-L22,2)</f>
-        <v>6224.166666666667</v>
+        <f>L11+B21*R16+L10*POWER(B14/2-L22,2)+B21*R15*POWER(B14+R4/2-L22,2)</f>
+        <v>5601.9714548802949</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R23" s="2">
-        <f>IF(B22 &gt;0, R22/16, 0)</f>
-        <v>0</v>
+        <f>IF(B24 &gt;0, R22/16, 0)</f>
+        <v>0.375</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>15</v>
@@ -2765,29 +2579,34 @@
     </row>
     <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" s="5">
-        <v>16</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
       <c r="K24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L24" s="2">
-        <f>L17 * MAX(B12+R4-L22,L22) / L23</f>
-        <v>0.9169888192765393</v>
+        <f>L17 * MAX(B14+R4-L22,L22) / L23</f>
+        <v>0.86321989578451808</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R24" s="9">
-        <f>MAX(B23,R23)</f>
+        <f>MAX(B25,R23)</f>
         <v>2</v>
       </c>
       <c r="S24" s="3" t="s">
@@ -2795,18 +2614,32 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
       <c r="K25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L25" s="2">
-        <f>(L10*B12/2 + B22 * R33 * (R22/2 +B12)) / ( L10 +B22*R33)</f>
-        <v>1</v>
+        <f>(L10*B14/2 + B24 * R33 * (R22/2 +B14)) / ( L10 +B24*R33)</f>
+        <v>1.3302752293577982</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R25" s="10">
         <f>MIN(R24,B6)</f>
@@ -2817,22 +2650,36 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="5">
+        <v>6</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
       <c r="K26" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L26" s="2">
-        <f>L11+B22*R34+L10*POWER(B12/2-L22,2)+B22*R33*POWER(B12+R22/2-L22,2)</f>
-        <v>2855.9375</v>
+        <f>L11+B24*R34+L10*POWER(B14/2-L25,2)+B24*R33*POWER(B14+R22/2-L25,2)</f>
+        <v>178.94342507645263</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R26" s="2">
         <f>2*R22</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>15</v>
@@ -2840,21 +2687,21 @@
     </row>
     <row r="27" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L27" s="2">
-        <f>L16 * (B12/2) / L26</f>
-        <v>5.0613852719115879E-2</v>
+        <f>L16 * (B14/2) / L26</f>
+        <v>2.1441860735373282</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R27" s="2">
         <f>L19*B7*L7</f>
-        <v>41.300000000000004</v>
+        <v>52.559999999999995</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>17</v>
@@ -2862,7 +2709,7 @@
     </row>
     <row r="28" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K28" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L28" s="2" t="str">
         <f>IF( AND(L27&lt;L21, L24&lt;L21), "safe", "unsafe")</f>
@@ -2870,11 +2717,11 @@
       </c>
       <c r="M28" s="3"/>
       <c r="Q28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R28" s="2" t="e">
-        <f>R27/B22</f>
-        <v>#DIV/0!</v>
+        <v>73</v>
+      </c>
+      <c r="R28" s="2">
+        <f>R27/B24</f>
+        <v>26.279999999999998</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>17</v>
@@ -2882,57 +2729,57 @@
     </row>
     <row r="29" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R29" s="2">
+        <f>R28/(R26*R25)</f>
+        <v>1.095</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="R29" s="2" t="e">
-        <f>R28/(R26*R25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="Q30" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R30" s="2">
         <f>L16 * (R22-L25) / L26</f>
-        <v>-5.0613852719115879E-2</v>
+        <v>10.012758820463302</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="Q31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R31" s="2" t="e">
+        <v>77</v>
+      </c>
+      <c r="R31" s="2">
         <f>POWER(POWER(R30,2)+3*POWER(R29,2),0.5)</f>
-        <v>#DIV/0!</v>
+        <v>10.190800468891817</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q32" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R32" s="2" t="e">
+        <v>79</v>
+      </c>
+      <c r="R32" s="2" t="str">
         <f>IF(AND(R31 &lt; V14*1.1, R30&lt;V14,R29&lt;V14), "safe", "unsafe")</f>
-        <v>#DIV/0!</v>
+        <v>unsafe</v>
       </c>
       <c r="S32" s="3"/>
     </row>
     <row r="33" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R33" s="2">
-        <f>R23*R22*B22</f>
-        <v>0</v>
+        <f>R23*R22*B24</f>
+        <v>4.5</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>16</v>
@@ -2940,29 +2787,18 @@
     </row>
     <row r="34" spans="17:19" ht="26.25" x14ac:dyDescent="0.4">
       <c r="Q34" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R34" s="2">
         <f>POWER(R22,3)*R23/12</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="Q35" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="Q19:S20"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="K1:M2"/>
@@ -2973,99 +2809,145 @@
     <mergeCell ref="F1:H2"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="Q1:S2"/>
+    <mergeCell ref="E18:I26"/>
   </mergeCells>
   <conditionalFormatting sqref="V7:V9">
-    <cfRule type="cellIs" dxfId="57" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="55" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" dxfId="53" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+      <formula>"safe"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V20">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V20">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>"unsafe"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"safe"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V21">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+      <formula>"unsafe"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="45" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="43" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="41" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="lessThan">
+  <conditionalFormatting sqref="B22">
+    <cfRule type="cellIs" dxfId="7" priority="33" operator="lessThan">
       <formula>$R$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="lessThan">
+  <conditionalFormatting sqref="B25">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>$R$23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V19:V20">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="V19">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V20">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"unsafe"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>"safe"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"unsafe"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'n direction stiffiners count'!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B24</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>